--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +216,22 @@
   </si>
   <si>
     <t>영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소변량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,32 +601,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -622,12 +639,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -635,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -643,12 +660,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -656,17 +673,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -674,32 +691,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -716,137 +733,145 @@
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -924,9 +949,9 @@
     <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:B26">
-    <sortState ref="A2:B41">
-      <sortCondition ref="A1:A26"/>
+  <autoFilter ref="A1:B121">
+    <sortState ref="A2:B121">
+      <sortCondition ref="A1:A121"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:B50">

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$124</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,21 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r/o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슬관절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mg/dL</t>
-  </si>
-  <si>
-    <t>단위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s/p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ml/min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,95 +128,459 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사관학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신장공여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간담췌외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항응고제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항혈전제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당뇨약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소변량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항암치료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액종양내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내분비대사내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장항문외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류마티스내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마취통증의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모발센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방사선종양학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병리과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비뇨의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산부인과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아청소년과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화기내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순환기내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신장내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레르기감염내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위장관외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방갑상선외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이비인후과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이식혈관외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임상약리학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재활의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신건강의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단검사의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호흡기내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉부외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀난치성 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가와사키병 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌전증 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신증 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염증성 장질환 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전대사 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태아심장 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀질환센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아정형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아신경외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아성형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아정신건강의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아이비인후과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아피부과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아비뇨의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아안과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아재활의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아응급의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아중환자의학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아입원의학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아영상의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이병원 진료과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌종양 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌하수체클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수두증 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담석증 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비만대사 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아 청소년 염증성 장질환 크릴닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암 환자와 가족 정신건강 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암생존자 클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항암제 피부특이반응클리닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부인암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비뇨기암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>췌장담도암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액암센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스피스 완화의료센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암진료부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교신검시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>병무용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT 찍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사관학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신장공여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간담췌외과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항응고제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항혈전제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요양병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당뇨약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소변량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성은효</t>
+    <t>병무용 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은효요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소염진통제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,19 +950,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -622,88 +971,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>121</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -713,245 +1071,857 @@
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
+      <c r="A24" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:B121">
-    <sortState ref="A2:B121">
-      <sortCondition ref="A1:A121"/>
+  <autoFilter ref="A1:C124">
+    <sortState ref="A2:C126">
+      <sortCondition ref="A1:A124"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:B50">

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="184">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,181 @@
   </si>
   <si>
     <t>소염진통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자가약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소팔메토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강기훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽진호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김광원</t>
+  </si>
+  <si>
+    <t>김기남</t>
+  </si>
+  <si>
+    <t>김기호</t>
+  </si>
+  <si>
+    <t>김남균</t>
+  </si>
+  <si>
+    <t>김완</t>
+  </si>
+  <si>
+    <t>나은병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도준영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이기태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범어연합내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤모힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다낭성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김완욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다낭신장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경영상의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동강병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이뮨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부골절제술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박언휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복강경하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방광띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절제술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철분제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴케어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텐트 시술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀과 진료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈관외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위약감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,250 +1241,214 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>177</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
+      <c r="A24" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>135</v>
+      <c r="A38" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>80</v>
@@ -1317,124 +1456,100 @@
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>80</v>
@@ -1442,109 +1557,118 @@
     </row>
     <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>133</v>
+        <v>61</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>14</v>
+        <v>110</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>80</v>
@@ -1552,209 +1676,215 @@
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>22</v>
+        <v>101</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>80</v>
+        <v>175</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>89</v>
@@ -1762,81 +1892,69 @@
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>47</v>
+        <v>93</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>80</v>
@@ -1844,7 +1962,7 @@
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>80</v>
@@ -1852,7 +1970,7 @@
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>89</v>
@@ -1860,67 +1978,302 @@
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C124">
-    <sortState ref="A2:C126">
+    <sortState ref="A2:C169">
       <sortCondition ref="A1:A124"/>
     </sortState>
   </autoFilter>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="197">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>찍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동국대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공진당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>곽진호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,6 +748,66 @@
   </si>
   <si>
     <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강심내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요독증상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암검진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가암검진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요관경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요관부목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽입술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고칼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고칼륨혈증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,12 +856,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -826,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +902,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1149,10 +1210,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,7 +1226,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,12 +1247,12 @@
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,485 +1270,509 @@
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>195</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>178</v>
+        <v>143</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>147</v>
+      <c r="A23" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>111</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>162</v>
+        <v>112</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>114</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>166</v>
+        <v>52</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>80</v>
+      <c r="A49" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>53</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>171</v>
+        <v>55</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1695,31 +1780,31 @@
         <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,553 +1812,747 @@
         <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>63</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>91</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>133</v>
+        <v>64</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>80</v>
+        <v>173</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>20</v>
+      <c r="A104" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>17</v>
+        <v>131</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>80</v>
+        <v>190</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>41</v>
+        <v>118</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>80</v>
+      <c r="A128" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>124</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>3</v>
+        <v>154</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>75</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>173</v>
+        <v>78</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>180</v>
+      <c r="A153" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>47</v>
+        <v>125</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>83</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>130</v>
+        <v>45</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C124">
-    <sortState ref="A2:C169">
+    <sortState ref="A2:C176">
       <sortCondition ref="A1:A124"/>
     </sortState>
   </autoFilter>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="216">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,183 +631,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이기태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤모힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다낭성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김완욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다낭신장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경영상의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동강병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이뮨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부골절제술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박언휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복강경하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방광띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절제술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철분제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴케어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텐트 시술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀과 진료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈관외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위약감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강심내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요독증상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암검진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가암검진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요관경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요관부목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽입술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고칼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고칼륨혈증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기저력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대련요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근치적 신장 절제술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건체중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸지뽕뿌리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이완제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십이지장염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리체절제술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비뇨기과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간보호센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범어연합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>윤내과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이기태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범어연합내과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤모힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다낭성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김완욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다낭신장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대경영상의학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동강병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이뮨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부골절제술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박언휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복강경하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방광띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절제술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철분제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴케어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텐트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텐트 시술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀과 진료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈관외과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위약감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강심내과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서맥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요독증상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공진단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암검진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가암검진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요관경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요관부목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삽입술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고칼륨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고칼륨혈증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +980,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,23 +1264,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="9.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,8 +1294,11 @@
       <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1224,12 +1306,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1245,22 +1327,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
@@ -1276,7 +1358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1284,7 +1366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1292,7 +1374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
@@ -1300,195 +1382,201 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>176</v>
+        <v>143</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
+      <c r="A23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>187</v>
+      <c r="A26" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>130</v>
+      <c r="A32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>9</v>
+      <c r="A33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>172</v>
+      <c r="A37" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>162</v>
+      <c r="A39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>13</v>
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>88</v>
@@ -1496,97 +1584,103 @@
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>163</v>
+      <c r="A43" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>129</v>
+      <c r="A44" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>79</v>
+      <c r="A45" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>161</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>19</v>
+      <c r="A49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>79</v>
+      <c r="A54" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>169</v>
+        <v>53</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>79</v>
@@ -1594,206 +1688,209 @@
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>24</v>
+      <c r="A60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>134</v>
+      <c r="A61" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>168</v>
+        <v>213</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="C74" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="C78" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>110</v>
@@ -1801,7 +1898,7 @@
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>110</v>
@@ -1809,7 +1906,7 @@
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>110</v>
@@ -1817,7 +1914,7 @@
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>110</v>
@@ -1825,7 +1922,7 @@
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>110</v>
@@ -1833,15 +1930,15 @@
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>110</v>
@@ -1849,15 +1946,15 @@
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>110</v>
@@ -1865,86 +1962,92 @@
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>16</v>
+        <v>140</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>181</v>
+      <c r="A104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>79</v>
@@ -1952,35 +2055,41 @@
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>20</v>
+        <v>171</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>34</v>
+      <c r="A110" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>79</v>
+        <v>131</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>79</v>
@@ -1988,57 +2097,48 @@
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>79</v>
@@ -2046,342 +2146,348 @@
     </row>
     <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>79</v>
+        <v>187</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>192</v>
+        <v>118</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>30</v>
+      <c r="A128" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>180</v>
+        <v>71</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>88</v>
+        <v>182</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>151</v>
+      <c r="A135" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>79</v>
+        <v>205</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>214</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>31</v>
+      <c r="A153" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>186</v>
+      <c r="A162" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>79</v>
@@ -2389,60 +2495,145 @@
     </row>
     <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C186" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E186" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2550,10 +2741,11 @@
     <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:C124">
-    <sortState ref="A2:C176">
-      <sortCondition ref="A1:A124"/>
+  <autoFilter ref="A1:C125">
+    <sortState ref="A2:C186">
+      <sortCondition ref="A1:A125"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:B50">

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuh\Desktop\의무기록 분석을 통한 진단코드 추천 AI 시스템 개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\close\Downloads\6_dictionary_verb.xlsx_240514\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$125</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="228">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요독증상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,13 +879,65 @@
   </si>
   <si>
     <t>윤내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요증상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배뇨통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여과율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자영업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏘팔메토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이균증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군신검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1264,11 +1312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1343,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1435,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1443,7 @@
         <v>180</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,31 +1453,31 @@
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1437,7 +1485,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1445,7 +1493,7 @@
         <v>143</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1455,128 +1503,125 @@
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>223</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>18</v>
+      <c r="A26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>185</v>
+      <c r="A28" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>202</v>
+        <v>148</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>88</v>
@@ -1584,119 +1629,119 @@
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>19</v>
+      <c r="A54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>79</v>
+      <c r="A56" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>79</v>
@@ -1704,88 +1749,88 @@
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>167</v>
+        <v>55</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>24</v>
+      <c r="A65" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>134</v>
+      <c r="A66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>166</v>
+      <c r="A68" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>164</v>
+      <c r="A69" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E72" s="7">
         <v>45398</v>
@@ -1793,7 +1838,7 @@
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>129</v>
@@ -1801,128 +1846,125 @@
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>27</v>
+        <v>123</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>181</v>
+        <v>59</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>8</v>
+        <v>216</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>110</v>
@@ -1930,15 +1972,15 @@
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>110</v>
@@ -1946,7 +1988,7 @@
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>110</v>
@@ -1954,7 +1996,7 @@
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>110</v>
@@ -1962,15 +2004,15 @@
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>110</v>
@@ -1978,7 +2020,7 @@
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>110</v>
@@ -1986,7 +2028,7 @@
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>110</v>
@@ -1994,15 +2036,15 @@
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>110</v>
@@ -2010,20 +2052,23 @@
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>79</v>
@@ -2031,88 +2076,94 @@
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>179</v>
+      <c r="A110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>132</v>
+        <v>64</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>79</v>
+        <v>171</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>20</v>
+      <c r="A114" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>17</v>
+        <v>131</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>79</v>
@@ -2120,25 +2171,22 @@
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>79</v>
@@ -2146,41 +2194,38 @@
     </row>
     <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>88</v>
@@ -2188,184 +2233,175 @@
     </row>
     <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="C135" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="C137" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="B140" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+    <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>79</v>
@@ -2373,198 +2409,198 @@
     </row>
     <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>48</v>
+        <v>225</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
-        <v>31</v>
+      <c r="A162" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>81</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>184</v>
+      <c r="A172" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E180" s="7">
-        <v>45397</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>79</v>
@@ -2575,10 +2611,10 @@
     </row>
     <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="E182" s="7">
         <v>45397</v>
@@ -2586,10 +2622,10 @@
     </row>
     <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E183" s="7">
         <v>45397</v>
@@ -2597,21 +2633,18 @@
     </row>
     <row r="184" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E184" s="7">
-        <v>45398</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E185" s="7">
         <v>45398</v>
@@ -2619,37 +2652,134 @@
     </row>
     <row r="186" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C196" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E186" s="7">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E196" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2742,9 +2872,10 @@
     <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C125">
-    <sortState ref="A2:C186">
+    <sortState ref="A2:C196">
       <sortCondition ref="A1:A125"/>
     </sortState>
   </autoFilter>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="246">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,10 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고려대련요양병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,6 +927,82 @@
   </si>
   <si>
     <t>군신검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장세나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩팥 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경연구사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간헐적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑막염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신장기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복강경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망개뿌리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초진창구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,9 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1325,11 +1394,10 @@
     <col min="2" max="2" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,11 +1410,8 @@
       <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1354,12 +1419,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1375,22 +1440,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
@@ -1406,7 +1471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1414,7 +1479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
@@ -1430,135 +1495,129 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
+      <c r="C16" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>174</v>
+        <v>222</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>18</v>
+      <c r="A28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>184</v>
+      <c r="A30" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>184</v>
@@ -1566,7 +1625,7 @@
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>184</v>
@@ -1574,7 +1633,7 @@
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>184</v>
@@ -1582,7 +1641,7 @@
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>184</v>
@@ -1590,421 +1649,403 @@
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>201</v>
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>130</v>
+      <c r="A39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>9</v>
+      <c r="A40" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>88</v>
+      <c r="A42" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>88</v>
+      <c r="A43" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>39</v>
+      <c r="A49" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>209</v>
+      <c r="A50" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>129</v>
+      <c r="A51" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>19</v>
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>210</v>
+      <c r="A60" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>167</v>
+        <v>54</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="C69" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="C71" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="C72" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E72" s="7">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>190</v>
+        <v>123</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>79</v>
@@ -2012,23 +2053,20 @@
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>110</v>
@@ -2036,7 +2074,7 @@
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>110</v>
@@ -2044,7 +2082,7 @@
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>110</v>
@@ -2052,7 +2090,7 @@
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>110</v>
@@ -2060,7 +2098,7 @@
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>110</v>
@@ -2068,7 +2106,7 @@
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>79</v>
@@ -2076,7 +2114,7 @@
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>110</v>
@@ -2084,78 +2122,84 @@
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>179</v>
+      <c r="A114" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>79</v>
@@ -2163,53 +2207,65 @@
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>17</v>
+        <v>230</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>79</v>
+        <v>171</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>222</v>
+      <c r="A123" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>14</v>
+        <v>131</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>79</v>
@@ -2217,7 +2273,7 @@
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>79</v>
@@ -2225,215 +2281,185 @@
     </row>
     <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="7">
-        <v>45408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+    </row>
+    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E135" s="7">
-        <v>45408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>70</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>226</v>
+      <c r="A153" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>79</v>
@@ -2441,15 +2467,15 @@
     </row>
     <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>79</v>
@@ -2457,345 +2483,401 @@
     </row>
     <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>155</v>
+        <v>212</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>224</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>220</v>
+        <v>152</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
-        <v>31</v>
+      <c r="A172" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>169</v>
+        <v>227</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E181" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E182" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E183" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E184" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E185" s="7">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E186" s="7">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E187" s="7">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E188" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E189" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E190" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E191" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+      <c r="C207" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C208" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E192" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+    </row>
+    <row r="209" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E193" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+      <c r="C209" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E194" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+      <c r="C211" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E195" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+    </row>
+    <row r="213" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C213" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E196" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="214" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2875,7 +2957,7 @@
     <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C125">
-    <sortState ref="A2:C196">
+    <sortState ref="A2:C213">
       <sortCondition ref="A1:A125"/>
     </sortState>
   </autoFilter>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\close\Downloads\6_dictionary_verb.xlsx_240514\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuh\Desktop\의무기록 분석을 통한 진단코드 추천 AI 시스템 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="259">
   <si>
     <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,13 +1003,65 @@
   </si>
   <si>
     <t>타과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관절약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사구체신염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전임의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공여의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스타틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산양유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국화인메가플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇨단백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횡문근융해증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알로에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑상선기능저하증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1502,146 +1554,137 @@
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>18</v>
+      <c r="A30" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>184</v>
+        <v>197</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>184</v>
+      <c r="A33" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>184</v>
@@ -1649,7 +1692,7 @@
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>184</v>
@@ -1657,7 +1700,7 @@
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>184</v>
@@ -1665,137 +1708,134 @@
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>200</v>
+        <v>147</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>130</v>
+      <c r="A42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>9</v>
+      <c r="A43" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>88</v>
+      <c r="A45" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>88</v>
+      <c r="A46" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>170</v>
+        <v>90</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>238</v>
+        <v>111</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>158</v>
+      <c r="A49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>160</v>
+      <c r="A50" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>13</v>
+      <c r="A51" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>39</v>
+      <c r="A53" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>208</v>
+      <c r="A54" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>129</v>
+      <c r="A55" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>208</v>
@@ -1803,249 +1843,249 @@
     </row>
     <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>19</v>
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>209</v>
+      <c r="A65" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>167</v>
+        <v>54</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>217</v>
+        <v>141</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>24</v>
+      <c r="A73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>134</v>
+      <c r="A74" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>241</v>
+        <v>211</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>57</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>164</v>
+      <c r="A79" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>129</v>
+      <c r="A80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>234</v>
+        <v>122</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>190</v>
+        <v>115</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>79</v>
@@ -2053,60 +2093,51 @@
     </row>
     <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>79</v>
@@ -2114,23 +2145,20 @@
     </row>
     <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>110</v>
@@ -2138,7 +2166,7 @@
     </row>
     <row r="108" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>110</v>
@@ -2146,7 +2174,7 @@
     </row>
     <row r="109" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>110</v>
@@ -2154,7 +2182,7 @@
     </row>
     <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>110</v>
@@ -2162,7 +2190,7 @@
     </row>
     <row r="111" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>110</v>
@@ -2170,7 +2198,7 @@
     </row>
     <row r="112" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>79</v>
@@ -2178,7 +2206,7 @@
     </row>
     <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>110</v>
@@ -2186,52 +2214,55 @@
     </row>
     <row r="114" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>231</v>
+        <v>107</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>79</v>
@@ -2239,92 +2270,107 @@
     </row>
     <row r="121" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>172</v>
+        <v>102</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>179</v>
+      <c r="A123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>132</v>
+        <v>63</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>20</v>
+        <v>230</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>34</v>
+        <v>171</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>202</v>
+      <c r="A132" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>221</v>
+        <v>131</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>79</v>
@@ -2332,67 +2378,58 @@
     </row>
     <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>220</v>
+        <v>67</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>79</v>
@@ -2400,149 +2437,131 @@
     </row>
     <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>189</v>
+        <v>118</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>214</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>30</v>
+      <c r="A153" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>70</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>204</v>
+        <v>71</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>207</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>225</v>
+      <c r="A163" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>79</v>
@@ -2550,15 +2569,15 @@
     </row>
     <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>79</v>
@@ -2566,82 +2585,106 @@
     </row>
     <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>155</v>
+        <v>212</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>224</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>219</v>
+        <v>152</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>235</v>
+        <v>76</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>79</v>
@@ -2649,190 +2692,169 @@
     </row>
     <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
-        <v>31</v>
+      <c r="A184" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>206</v>
+        <v>227</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>243</v>
+        <v>78</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>245</v>
+        <v>80</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>176</v>
+      <c r="A196" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>79</v>
@@ -2840,20 +2862,23 @@
     </row>
     <row r="210" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>232</v>
+        <v>163</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>88</v>
@@ -2861,39 +2886,118 @@
     </row>
     <row r="213" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2957,7 +3061,7 @@
     <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C125">
-    <sortState ref="A2:C213">
+    <sortState ref="A2:C226">
       <sortCondition ref="A1:A125"/>
     </sortState>
   </autoFilter>
